--- a/Dissertation/Writeup/Introduction/Risks_Table.xlsx
+++ b/Dissertation/Writeup/Introduction/Risks_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan-Syme\Documents\Final_Year\Final_Year_Project\Individual_Project\Dissertation\Writeup\Introduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B5B6AE7-71D1-4F81-8182-588CC08A8CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18F4C1C-002B-4775-8732-820A441ACC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3000" windowWidth="29040" windowHeight="15840" xr2:uid="{3E094010-B62A-4157-8463-96F1E00E6064}"/>
+    <workbookView xWindow="32625" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{3E094010-B62A-4157-8463-96F1E00E6064}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F9" sqref="B2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
